--- a/medicine/Enfance/Marie_Barrère-Affre/Marie_Barrère-Affre.xlsx
+++ b/medicine/Enfance/Marie_Barrère-Affre/Marie_Barrère-Affre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marie_Barr%C3%A8re-Affre</t>
+          <t>Marie_Barrère-Affre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Barrère-Affre, née Marie Affre le 31 juillet 1885 à Perpignan (Pyrénées-Orientales) et morte le 23 juillet 1963 à Collioure (Pyrénées-Orientales), est une autrice française de livres pour enfants et d'ouvrages sur le Maroc.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marie_Barr%C3%A8re-Affre</t>
+          <t>Marie_Barrère-Affre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie Affre est née à Perpignan le 31 juillet 1885. Elle perd sa mère en 1902 et son père en 1913. Elle épouse Raoul Barrère le 9 janvier 1914 à Perpignan. Le couple part alors s'installer à Casablanca (Maroc). Leur fils Edmond y naît en 1915. De retour en France en 1920, ils passent deux ans à Castres (Tarn), où naît leur fille Maryvonne en 1922, puis ils retournent au Maroc, d'abord à Settat puis à Tamelelt. Son époux meurt en 1955 à Mogador. Marie Barrère-Affre rentre en France en 1957, après l'indépendance du Maroc. Elle s'installe d'abord à Saint-Ciers-d'Abzac (Gironde) puis revient dans les Pyrénées-Orientales. Après quelques mois en 1959 à Thuès-Entre-Valls, elle se fixe à Collioure, où elle meurt le 23 juillet 1963[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Affre est née à Perpignan le 31 juillet 1885. Elle perd sa mère en 1902 et son père en 1913. Elle épouse Raoul Barrère le 9 janvier 1914 à Perpignan. Le couple part alors s'installer à Casablanca (Maroc). Leur fils Edmond y naît en 1915. De retour en France en 1920, ils passent deux ans à Castres (Tarn), où naît leur fille Maryvonne en 1922, puis ils retournent au Maroc, d'abord à Settat puis à Tamelelt. Son époux meurt en 1955 à Mogador. Marie Barrère-Affre rentre en France en 1957, après l'indépendance du Maroc. Elle s'installe d'abord à Saint-Ciers-d'Abzac (Gironde) puis revient dans les Pyrénées-Orientales. Après quelques mois en 1959 à Thuès-Entre-Valls, elle se fixe à Collioure, où elle meurt le 23 juillet 1963.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marie_Barr%C3%A8re-Affre</t>
+          <t>Marie_Barrère-Affre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Pseudonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Barrère-Affre a publié sous différents noms de plume, dont notamment Myriam Catalany. Avant son mariage, elle signe Marie Affre ou Violette des Pyrénées, son pseudonyme. Très tôt les productions chez Gautier-Languereau (La Semaine de Suzette) puis les romans cinématiques sont signés Myriam Catalany - Marie la Catalane. Elle est « Flâneuse » dans le journal marocain L’Atlas qui paraît à Marrakech. Dans certains feuilletons du Pèlerin, elle signe Gineste (ou Ginette) de Cosprons, Marie Régis Falandry (nom de sa grand-mère maternelle). Est sûrement Marie, ce Tamelelt qui signe un Brumaire et Messidor dans La Croix des Jeunes en 1935.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marie_Barr%C3%A8re-Affre</t>
+          <t>Marie_Barrère-Affre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Révolte du bronze, 1912
 La Kasba parmi les tentes. Croquis marocains, 1919, prix Montyon de l’Académie française en 1921
@@ -618,11 +636,79 @@
 L'Aviateur de l'Atlas, 1949
 Le Fils de l'aviateur, 1949
 Zouina, la petite sultane, 1954
-Contes de Noël
-Sous le pseudonyme de Gineste de Cosprons
-La Douce Conquête, paru en feuilleton dans le journal La Croix à partir du 3 janvier 1930 lire en ligne sur Gallica
-Sous le pseudonyme de Myriam Catalany
-Le Règne de Cendrillon, Gautier Languereau, Bibliothèque de Suzette
+Contes de Noël</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marie_Barrère-Affre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Barr%C3%A8re-Affre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Gineste de Cosprons</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Douce Conquête, paru en feuilleton dans le journal La Croix à partir du 3 janvier 1930 lire en ligne sur Gallica</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marie_Barrère-Affre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Barr%C3%A8re-Affre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Myriam Catalany</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Règne de Cendrillon, Gautier Languereau, Bibliothèque de Suzette
 P'tit Oiseau, Gautier Languereau, Bibliothèque de Suzette, juin 1929
 Le Voyage de Mimose, Gautier Languereau, Bibliothèque de Suzette
 La Petite Marquise de Karabat,  Gautier Languereau, Bibliothèque de Suzette</t>
